--- a/Presentation/Simple AI-Data.xlsx
+++ b/Presentation/Simple AI-Data.xlsx
@@ -51,9 +51,6 @@
     <t>0.77</t>
   </si>
   <si>
-    <t>Dense</t>
-  </si>
-  <si>
     <t>VGG16</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Random Forest Grey + Random Forest Text</t>
+  </si>
+  <si>
+    <t>CNN 1D</t>
   </si>
 </sst>
 </file>
@@ -195,6 +195,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$D$7:$D$9</c:f>
@@ -244,6 +303,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$D$7:$D$9</c:f>
@@ -268,7 +386,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.879</c:v>
+                  <c:v>0.88329999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.79</c:v>
@@ -281,19 +399,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="419800016"/>
-        <c:axId val="419795312"/>
+        <c:axId val="331911048"/>
+        <c:axId val="331911440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419800016"/>
+        <c:axId val="331911048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,7 +455,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419795312"/>
+        <c:crossAx val="331911440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -344,7 +463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419795312"/>
+        <c:axId val="331911440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +514,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419800016"/>
+        <c:crossAx val="331911048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -573,11 +692,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="420989904"/>
-        <c:axId val="420986376"/>
+        <c:axId val="331912224"/>
+        <c:axId val="331909872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="420989904"/>
+        <c:axId val="331912224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +739,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420986376"/>
+        <c:crossAx val="331909872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -628,7 +747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420986376"/>
+        <c:axId val="331909872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +798,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420989904"/>
+        <c:crossAx val="331912224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -815,7 +934,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -911,7 +1029,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -964,11 +1081,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="463701136"/>
-        <c:axId val="463709760"/>
+        <c:axId val="331909480"/>
+        <c:axId val="331910264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463701136"/>
+        <c:axId val="331909480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1128,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463709760"/>
+        <c:crossAx val="331910264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1019,7 +1136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463709760"/>
+        <c:axId val="331910264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1182,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1126,7 +1242,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463701136"/>
+        <c:crossAx val="331909480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1259,7 +1375,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1364,7 +1479,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1423,11 +1537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="463708584"/>
-        <c:axId val="457247776"/>
+        <c:axId val="331914968"/>
+        <c:axId val="331912616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463708584"/>
+        <c:axId val="331914968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1584,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457247776"/>
+        <c:crossAx val="331912616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1478,7 +1592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457247776"/>
+        <c:axId val="331912616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1638,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1585,7 +1698,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463708584"/>
+        <c:crossAx val="331914968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4204,7 +4317,7 @@
   <dimension ref="D5:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4222,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
@@ -4233,7 +4346,7 @@
         <v>0.6</v>
       </c>
       <c r="F7" s="1">
-        <v>0.879</v>
+        <v>0.88329999999999997</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
@@ -4263,15 +4376,15 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
         <v>0.61</v>
@@ -4282,7 +4395,7 @@
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>0.64</v>
@@ -4321,20 +4434,20 @@
   <sheetData>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>0.74319999999999997</v>
@@ -4345,7 +4458,7 @@
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>0.55000000000000004</v>
@@ -4356,7 +4469,7 @@
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
@@ -4364,15 +4477,15 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>0.76300000000000001</v>
@@ -4383,7 +4496,7 @@
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>0.77200000000000002</v>
